--- a/error.xlsx
+++ b/error.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" revIDLastSave="17" xr10:uidLastSave="{2AAAC5C0-F687-4732-91C0-2689D84A7B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoant\OneDrive\Documents\thuctapsaurv1\test_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="105"/>
+    <workbookView windowHeight="9192" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
     <sheet name="error" r:id="rId5" sheetId="2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,12 +41,6 @@
     <t>Nguyen Van Q</t>
   </si>
   <si>
-    <t>qnguyengmail.com</t>
-  </si>
-  <si>
-    <t>0379999999</t>
-  </si>
-  <si>
     <t>89f1a18f-9497-430c-9a9f-be1bb097218c</t>
   </si>
   <si>
@@ -58,24 +56,30 @@
     <t>Nguyen Van W</t>
   </si>
   <si>
-    <t>wnguyen@gmail.com</t>
-  </si>
-  <si>
     <t>0380000000</t>
   </si>
   <si>
+    <t>qnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>wnguyengmail.com</t>
+  </si>
+  <si>
+    <t>379999999</t>
+  </si>
+  <si>
+    <t>[phone=Not valid!, Town=Not found!, Code=This field must not be duplicate!, District=Not found!, Province=Not found!]</t>
+  </si>
+  <si>
     <t>[Town=Not found!, Code=This field must not be duplicate!, District=Not found!, email=Not valid!, Province=Not found!]</t>
-  </si>
-  <si>
-    <t>[Town=Not found!, Code=This field must not be duplicate!, District=Not found!, Province=Not found!]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,25 +435,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.33203125" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="3.28515625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="37.7109375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.85546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="39.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="3.33203125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="37.6640625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.88671875" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="39.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,80 +461,80 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1">
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C1" xr:uid="{0D78E5BC-2CD7-473B-B4BC-C3B1F4D34C88}"/>
-    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2" xr:uid="{1E7A3BF4-561A-48D1-A779-1D3175BFC367}"/>
-    <hyperlink r:id="rId3" ref="C2" xr:uid="{7499A539-4962-4B82-8881-399D55956A81}"/>
+    <hyperlink r:id="rId1" ref="C1"/>
+    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2"/>
+    <hyperlink display="wnguyen@gmail.com" r:id="rId3" ref="C2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="3.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="39.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,51 +542,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1">
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -590,9 +594,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C1" xr:uid="{0D78E5BC-2CD7-473B-B4BC-C3B1F4D34C88}"/>
-    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2" xr:uid="{1E7A3BF4-561A-48D1-A779-1D3175BFC367}"/>
-    <hyperlink r:id="rId3" ref="C2" xr:uid="{7499A539-4962-4B82-8881-399D55956A81}"/>
+    <hyperlink r:id="rId1" ref="C1"/>
+    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2"/>
+    <hyperlink display="wnguyen@gmail.com" r:id="rId3" ref="C2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/error.xlsx
+++ b/error.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="error" r:id="rId5" sheetId="2"/>
+    <sheet name="error" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,45 +33,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>empl111</t>
-  </si>
-  <si>
-    <t>Nguyen Van Q</t>
-  </si>
-  <si>
-    <t>89f1a18f-9497-430c-9a9f-be1bb097218c</t>
-  </si>
-  <si>
-    <t>72a1da4d-3de4-4f38-8bcd-794a60ba10e3</t>
-  </si>
-  <si>
-    <t>4942ade0-4051-402f-89a8-266bd473b6d7</t>
-  </si>
-  <si>
-    <t>empl112</t>
-  </si>
-  <si>
-    <t>Nguyen Van W</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>0379999999</t>
   </si>
   <si>
     <t>0380000000</t>
   </si>
   <si>
-    <t>qnguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>wnguyengmail.com</t>
-  </si>
-  <si>
-    <t>379999999</t>
-  </si>
-  <si>
-    <t>[phone=Not valid!, Town=Not found!, Code=This field must not be duplicate!, District=Not found!, Province=Not found!]</t>
-  </si>
-  <si>
-    <t>[Town=Not found!, Code=This field must not be duplicate!, District=Not found!, email=Not valid!, Province=Not found!]</t>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>Nguyen Van B</t>
+  </si>
+  <si>
+    <t>Nguyen Van C</t>
+  </si>
+  <si>
+    <t>Nguyen Van D</t>
+  </si>
+  <si>
+    <t>Nguyen Van E</t>
+  </si>
+  <si>
+    <t>Nguyen Van F</t>
+  </si>
+  <si>
+    <t>Nguyen Van G</t>
+  </si>
+  <si>
+    <t>cnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>dnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>enguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>fnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>gnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>0380000002</t>
+  </si>
+  <si>
+    <t>0380000003</t>
+  </si>
+  <si>
+    <t>0380000004</t>
+  </si>
+  <si>
+    <t>0380000005</t>
+  </si>
+  <si>
+    <t>anguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>bnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>380000001</t>
+  </si>
+  <si>
+    <t>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</t>
+  </si>
+  <si>
+    <t>a531c9d2-5492-4987-aeea-edbf1ff44551</t>
+  </si>
+  <si>
+    <t>88e74b23-80ab-453a-964c-253285782848</t>
+  </si>
+  <si>
+    <t>empl444</t>
+  </si>
+  <si>
+    <t>empl445</t>
+  </si>
+  <si>
+    <t>empl446</t>
+  </si>
+  <si>
+    <t>empl447</t>
+  </si>
+  <si>
+    <t>empl448</t>
+  </si>
+  <si>
+    <t>empl449</t>
+  </si>
+  <si>
+    <t>empl450</t>
+  </si>
+  <si>
+    <t>[phone=Not valid!]</t>
   </si>
 </sst>
 </file>
@@ -436,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,72 +512,226 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E1">
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="str">
+        <f>F1</f>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G2" t="str">
+        <f>G1</f>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H2" t="str">
+        <f>H1</f>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="str">
+        <f ref="F3:F7" si="0" t="shared">F2</f>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G3" t="str">
+        <f>G2</f>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H3" t="str">
+        <f ref="H3:H7" si="1" t="shared">H2</f>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G4" t="str">
+        <f ref="G4:G7" si="2" t="shared">G3</f>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H4" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G5" t="str">
+        <f si="2" t="shared"/>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H5" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G6" t="str">
+        <f si="2" t="shared"/>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H6" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G7" t="str">
+        <f si="2" t="shared"/>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H7" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C1"/>
-    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2"/>
-    <hyperlink display="wnguyen@gmail.com" r:id="rId3" ref="C2"/>
+    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2:C7"/>
+    <hyperlink r:id="rId3" ref="C2"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="C4"/>
+    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink r:id="rId7" ref="C6"/>
+    <hyperlink r:id="rId8" ref="C7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,67 +747,217 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E1">
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="str">
+        <f>F1</f>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G2" t="str">
+        <f>G1</f>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H2" t="str">
+        <f>H1</f>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="str">
+        <f ref="F3:F7" si="0" t="shared">F2</f>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G3" t="str">
+        <f>G2</f>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H3" t="str">
+        <f ref="H3:H7" si="1" t="shared">H2</f>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G4" t="str">
+        <f ref="G4:G7" si="2" t="shared">G3</f>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H4" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G5" t="str">
+        <f si="2" t="shared"/>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H5" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G6" t="str">
+        <f si="2" t="shared"/>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H6" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" t="str">
+        <f si="0" t="shared"/>
+        <v>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</v>
+      </c>
+      <c r="G7" t="str">
+        <f si="2" t="shared"/>
+        <v>a531c9d2-5492-4987-aeea-edbf1ff44551</v>
+      </c>
+      <c r="H7" t="str">
+        <f si="1" t="shared"/>
+        <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C1"/>
-    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2"/>
-    <hyperlink display="wnguyen@gmail.com" r:id="rId3" ref="C2"/>
+    <hyperlink display="qnguyen@gmail.com" r:id="rId2" ref="C2:C7"/>
+    <hyperlink r:id="rId3" ref="C2"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="C4"/>
+    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink r:id="rId7" ref="C6"/>
+    <hyperlink r:id="rId8" ref="C7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/error.xlsx
+++ b/error.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>0379999999</t>
   </si>
@@ -95,9 +95,6 @@
     <t>bnguyen@gmail.com</t>
   </si>
   <si>
-    <t>380000001</t>
-  </si>
-  <si>
     <t>cda67100-8a85-4ad2-a3b2-6127cf0d95cc</t>
   </si>
   <si>
@@ -128,7 +125,28 @@
     <t>empl450</t>
   </si>
   <si>
-    <t>[phone=Not valid!]</t>
+    <t>0380000001</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl444","message":"This field must not be duplicate!"}</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl445","message":"This field must not be duplicate!"}</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl446","message":"This field must not be duplicate!"}</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl447","message":"This field must not be duplicate!"}</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl448","message":"This field must not be duplicate!"}</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl449","message":"This field must not be duplicate!"}</t>
+  </si>
+  <si>
+    <t>{"field":"code","data":"empl450","message":"This field must not be duplicate!"}</t>
   </si>
 </sst>
 </file>
@@ -496,7 +514,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +530,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -527,18 +545,18 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -567,7 +585,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -576,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -596,7 +614,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -625,7 +643,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -654,7 +672,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -683,7 +701,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -731,7 +749,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -762,18 +780,21 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
+      <c r="I1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -799,10 +820,13 @@
         <f>H1</f>
         <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -811,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -829,12 +853,12 @@
         <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -860,10 +884,13 @@
         <f si="1" t="shared"/>
         <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -889,10 +916,13 @@
         <f si="1" t="shared"/>
         <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -918,10 +948,13 @@
         <f si="1" t="shared"/>
         <v>88e74b23-80ab-453a-964c-253285782848</v>
       </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -946,6 +979,9 @@
       <c r="H7" t="str">
         <f si="1" t="shared"/>
         <v>88e74b23-80ab-453a-964c-253285782848</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
